--- a/Assets/Editor/Excel/杂货店配置.xlsx
+++ b/Assets/Editor/Excel/杂货店配置.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Grocery  Store\Assets\Editor\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GroceryStore\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="物品" sheetId="1" r:id="rId1"/>
+    <sheet name="总览" sheetId="2" r:id="rId1"/>
+    <sheet name="物品" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -34,10 +35,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -91,6 +88,25 @@
   </si>
   <si>
     <t>卫生纸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成文件名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -533,12 +549,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB2CC0-1139-42E1-A973-A2A7023B7124}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -567,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -581,19 +639,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,13 +659,13 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>10001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -618,13 +676,13 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>10002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -635,7 +693,7 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>10003</v>
